--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3730.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3730.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.248863351159986</v>
+        <v>2.719623804092407</v>
       </c>
       <c r="B1">
-        <v>2.36014200036904</v>
+        <v>2.106775522232056</v>
       </c>
       <c r="C1">
-        <v>5.569392972960189</v>
+        <v>2.059844017028809</v>
       </c>
       <c r="D1">
-        <v>2.912974460219528</v>
+        <v>1.906466603279114</v>
       </c>
       <c r="E1">
-        <v>1.13959461246925</v>
+        <v>1.547598600387573</v>
       </c>
     </row>
   </sheetData>
